--- a/output14.xlsx
+++ b/output14.xlsx
@@ -680,10 +680,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -691,10 +691,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>1.623233</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>1.680192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -702,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>1.94507</v>
       </c>
       <c r="C21">
-        <v>89</v>
+        <v>1.597237</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -746,10 +746,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -757,10 +757,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>3.595283999999999</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>3.011563</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -768,10 +768,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,10 +779,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>3.282432</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>3.105518</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -790,10 +790,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -801,10 +801,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>3.618272</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>3.338407</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -812,10 +812,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -823,10 +823,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>2.941312</v>
       </c>
       <c r="C31">
-        <v>87</v>
+        <v>2.915889</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -834,10 +834,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -845,10 +845,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>3.114511</v>
       </c>
       <c r="C33">
-        <v>72</v>
+        <v>2.870628</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -856,10 +856,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -867,10 +867,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>3.364392</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>3.405372</v>
       </c>
     </row>
   </sheetData>

--- a/output14.xlsx
+++ b/output14.xlsx
@@ -680,10 +680,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -691,10 +691,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1.623233</v>
+        <v>75</v>
       </c>
       <c r="C19">
-        <v>1.680192</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -702,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.94507</v>
+        <v>88</v>
       </c>
       <c r="C21">
-        <v>1.597237</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -746,10 +746,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -757,10 +757,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>3.595283999999999</v>
+        <v>72</v>
       </c>
       <c r="C25">
-        <v>3.011563</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -768,10 +768,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,10 +779,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>3.282432</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <v>3.105518</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -790,10 +790,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -801,10 +801,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>3.618272</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>3.338407</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -812,10 +812,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -823,10 +823,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>2.941312</v>
+        <v>87</v>
       </c>
       <c r="C31">
-        <v>2.915889</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -834,10 +834,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -845,10 +845,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>3.114511</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>2.870628</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -856,10 +856,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -867,10 +867,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>3.364392</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>3.405372</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/output14.xlsx
+++ b/output14.xlsx
@@ -757,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>69</v>
